--- a/Resource/excel/3010-匹配-匹配设置.xlsx
+++ b/Resource/excel/3010-匹配-匹配设置.xlsx
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -104,29 +104,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,114 +240,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,13 +281,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,31 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,133 +443,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,17 +490,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,15 +525,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -544,7 +538,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,15 +558,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -587,157 +572,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,9 +764,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1200,15 +1197,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="5" customWidth="1"/>
@@ -1256,17 +1253,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
+    <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="7">
         <v>0</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1">
@@ -1275,17 +1272,15 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:7">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1312,10 +1307,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
-        <v>200</v>
+        <v>99999999</v>
       </c>
       <c r="E5" s="1">
         <v>99999999</v>
@@ -1328,196 +1323,196 @@
       </c>
     </row>
     <row r="6" s="4" customFormat="1" ht="15" spans="1:2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" s="4" customFormat="1" spans="1:2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" s="4" customFormat="1" spans="1:2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" s="4" customFormat="1" spans="1:2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" s="4" customFormat="1" spans="1:2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" s="4" customFormat="1" spans="1:2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" s="4" customFormat="1" spans="1:2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" s="4" customFormat="1" spans="1:2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" s="4" customFormat="1" spans="1:2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" s="4" customFormat="1" spans="1:2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" s="4" customFormat="1" spans="1:2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" s="4" customFormat="1" spans="1:2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" s="4" customFormat="1" spans="1:2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
     </row>
     <row r="31" ht="12.75" customHeight="1" spans="1:2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
     </row>
     <row r="32" ht="12.75" customHeight="1" spans="1:2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
